--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,79 +55,91 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -485,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.84</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,37 +616,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7597402597402597</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C4">
+        <v>175</v>
+      </c>
+      <c r="D4">
+        <v>175</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>117</v>
-      </c>
-      <c r="D4">
-        <v>117</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -654,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3390557939914163</v>
+        <v>0.2112403100775194</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>154</v>
+        <v>407</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2209302325581395</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -754,13 +766,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +792,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +818,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +844,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8235294117647058</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +870,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8035714285714286</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +896,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +922,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7241379310344828</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +948,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7123287671232876</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +974,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6923076923076923</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +1000,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6896551724137931</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1026,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.68</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1052,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1078,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6363636363636364</v>
+        <v>0.62</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1104,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,25 +1130,25 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L21">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>18</v>
-      </c>
-      <c r="M21">
-        <v>18</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1156,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5868544600938967</v>
+        <v>0.5625</v>
       </c>
       <c r="L22">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1182,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5357142857142857</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1208,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5069444444444444</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L24">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1234,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4857142857142857</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1260,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4728682170542636</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L26">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,7 +1286,7 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3478260869565217</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L27">
         <v>32</v>
@@ -1292,7 +1304,111 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>60</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.4067796610169492</v>
+      </c>
+      <c r="L28">
+        <v>120</v>
+      </c>
+      <c r="M28">
+        <v>120</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.3765690376569037</v>
+      </c>
+      <c r="L29">
+        <v>90</v>
+      </c>
+      <c r="M29">
+        <v>90</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.01168770453482936</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>0.86</v>
+      </c>
+      <c r="O31">
+        <v>0.14</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2114</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -55,15 +55,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -76,28 +76,28 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
@@ -106,9 +106,6 @@
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -118,28 +115,31 @@
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -566,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7647058823529411</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -616,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5993150684931506</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C4">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2112403100775194</v>
+        <v>0.2189922480620155</v>
       </c>
       <c r="C5">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.201058201058201</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -766,13 +766,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -792,13 +792,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -818,13 +818,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -844,13 +844,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -870,13 +870,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7890625</v>
+        <v>0.7734375</v>
       </c>
       <c r="L11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -896,25 +896,25 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L12">
+        <v>92</v>
+      </c>
+      <c r="M12">
+        <v>92</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>28</v>
-      </c>
-      <c r="M12">
-        <v>28</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -922,13 +922,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7450980392156863</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -948,13 +948,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7222222222222222</v>
+        <v>0.69375</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -974,13 +974,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7183098591549296</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L15">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1000,13 +1000,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7075471698113207</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L16">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1026,13 +1026,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6875</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1052,13 +1052,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6276595744680851</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M18">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1078,13 +1078,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1104,13 +1104,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6190476190476191</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1130,13 +1130,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6170212765957447</v>
+        <v>0.5625</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1156,13 +1156,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5625</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1182,13 +1182,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5169712793733682</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="L23">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="M23">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1208,13 +1208,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4943820224719101</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1234,13 +1234,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4764705882352941</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L25">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>178</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1260,13 +1260,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4461538461538462</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1286,13 +1286,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4102564102564102</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>46</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1312,13 +1312,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4067796610169492</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L28">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>175</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1338,13 +1338,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.3765690376569037</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L29">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>149</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1364,25 +1364,25 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.3698630136986301</v>
+        <v>0.01355773726040206</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1390,25 +1390,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.01168770453482936</v>
+        <v>0.009017713365539453</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N31">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="O31">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>2114</v>
+        <v>3077</v>
       </c>
     </row>
   </sheetData>
